--- a/AAII_Financials/Yearly/INSP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INSP_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
   <si>
     <t>INSP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,27 +708,30 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E8" s="3">
         <v>50600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>28600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -738,27 +741,30 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E9" s="3">
         <v>10100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2800</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -768,27 +774,30 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E10" s="3">
         <v>40500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,25 +825,26 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E12" s="3">
         <v>7400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>7100</v>
       </c>
       <c r="G12" s="3">
         <v>7100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+      <c r="H12" s="3">
+        <v>7100</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,9 +921,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,26 +969,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>116900</v>
+      </c>
+      <c r="E17" s="3">
         <v>71000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>44600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>33700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>27800</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,27 +999,30 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-20400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-16000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19800</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,25 +1050,26 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1047,27 +1080,30 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-18100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-15500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-17100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-19700</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1077,27 +1113,30 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E22" s="3">
         <v>3300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1600</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,27 +1146,30 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21300</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1137,9 +1179,12 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1158,18 +1203,21 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,27 +1245,30 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-17500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21300</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1227,27 +1278,30 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-17500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21300</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,26 +1443,29 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1407,27 +1476,30 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-17500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21300</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,27 +1542,30 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-17500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21300</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1497,32 +1575,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,23 +1646,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E41" s="3">
         <v>97300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6700</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1590,23 +1676,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>126600</v>
+      </c>
+      <c r="E42" s="3">
         <v>90900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>7200</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1620,24 +1709,27 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E43" s="3">
         <v>6700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,24 +1742,27 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E44" s="3">
         <v>2700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3400</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1680,24 +1775,27 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1710,24 +1808,27 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>170600</v>
+      </c>
+      <c r="E46" s="3">
         <v>199300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>24100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12200</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,54 +1841,60 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>6300</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E48" s="3">
         <v>800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,9 +1907,12 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,24 +2072,27 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>181300</v>
+      </c>
+      <c r="E54" s="3">
         <v>200100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>25100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13100</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,23 +2138,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,24 +2168,27 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>3300</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2068,24 +2201,27 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E59" s="3">
         <v>7700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2800</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,24 +2234,27 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E60" s="3">
         <v>11200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7300</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,24 +2267,27 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E61" s="3">
         <v>24900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2158,9 +2300,12 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2168,14 +2313,14 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,24 +2432,27 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E66" s="3">
         <v>36100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19700</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,14 +2559,14 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>119100</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>94100</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,24 +2612,27 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-180200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-146900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-125100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-107600</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,24 +2744,27 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>139800</v>
+      </c>
+      <c r="E76" s="3">
         <v>164000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-117800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-100700</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,32 +2810,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,27 +2848,30 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-17500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21300</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,25 +2899,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,27 +3094,30 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-17900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-22300</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,25 +3145,26 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-300</v>
       </c>
       <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>-300</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,27 +3241,30 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-83400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>23600</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,27 +3421,30 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>190400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>25700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>12800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2500</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3209,17 +3454,20 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
@@ -3236,30 +3484,33 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-74400</v>
+      </c>
+      <c r="E102" s="3">
         <v>88300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3900</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/INSP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INSP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
   <si>
     <t>INSP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,30 +711,33 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>115400</v>
+      </c>
+      <c r="E8" s="3">
         <v>82100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>50600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>28600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8000</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -744,30 +747,33 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E9" s="3">
         <v>13600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2800</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -777,30 +783,33 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>97800</v>
+      </c>
+      <c r="E10" s="3">
         <v>68400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>40500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>22500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5200</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,28 +838,29 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E12" s="3">
         <v>12800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>7100</v>
       </c>
       <c r="H12" s="3">
         <v>7100</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+      <c r="I12" s="3">
+        <v>7100</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,9 +907,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,9 +943,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,29 +995,30 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>171600</v>
+      </c>
+      <c r="E17" s="3">
         <v>116900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>71000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>44600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>33700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>27800</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1002,30 +1028,33 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-56200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-34900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-20400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-16000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-19800</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,28 +1083,29 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>3800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1083,30 +1116,33 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-30600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-18100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-15500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-17100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-19700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1116,9 +1152,12 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1126,20 +1165,20 @@
         <v>2100</v>
       </c>
       <c r="E22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F22" s="3">
         <v>3300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1600</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1149,30 +1188,33 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-33200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-17500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21300</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,14 +1224,17 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1203,21 +1248,24 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,30 +1296,33 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-33200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-17500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21300</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1281,30 +1332,33 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-33200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-17500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21300</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,29 +1512,32 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1479,30 +1548,33 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-33200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-17500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21300</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,30 +1620,33 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-33200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-17500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21300</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1578,35 +1656,38 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,26 +1732,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>190500</v>
+      </c>
+      <c r="E41" s="3">
         <v>22900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>97300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6700</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1679,26 +1765,29 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E42" s="3">
         <v>126600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>90900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>7200</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1712,27 +1801,30 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E43" s="3">
         <v>13100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1745,27 +1837,30 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E44" s="3">
         <v>5800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3400</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,27 +1873,30 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,27 +1909,30 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>269900</v>
+      </c>
+      <c r="E46" s="3">
         <v>170600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>199300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>24100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12200</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1844,18 +1945,21 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>6300</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1871,33 +1975,36 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E48" s="3">
         <v>4000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1910,9 +2017,12 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,18 +2125,21 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2036,15 +2155,18 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,27 +2197,30 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>281200</v>
+      </c>
+      <c r="E54" s="3">
         <v>181300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>200100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>25100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13100</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,26 +2268,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E57" s="3">
         <v>4500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2171,9 +2301,12 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2183,15 +2316,15 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>3300</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2204,27 +2337,30 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E59" s="3">
         <v>12400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2800</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2237,27 +2373,30 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E60" s="3">
         <v>16900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7300</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2270,27 +2409,30 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E61" s="3">
         <v>24500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2303,27 +2445,30 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,27 +2589,30 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E66" s="3">
         <v>41400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>36100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19700</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2562,14 +2729,14 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>119100</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>94100</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,27 +2785,30 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-237300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-180200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-146900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-125100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-107600</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,27 +2929,30 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>229700</v>
+      </c>
+      <c r="E76" s="3">
         <v>139800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>164000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-117800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-100700</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,35 +3001,38 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,30 +3042,33 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-33200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-17500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21300</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,28 +3097,29 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>800</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>100</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,30 +3310,33 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-32800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-22300</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,28 +3365,29 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-300</v>
       </c>
       <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>-300</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,30 +3470,33 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>86600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-43600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-83400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>23600</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,30 +3666,33 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>134100</v>
+      </c>
+      <c r="E100" s="3">
         <v>2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>190400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>25700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>12800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2500</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3457,9 +3702,12 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3469,8 +3717,8 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3487,33 +3735,36 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>167700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-74400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>88300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3900</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/INSP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INSP_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,33 +714,36 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>233400</v>
+      </c>
+      <c r="E8" s="3">
         <v>115400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>82100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>50600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>28600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8000</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -750,33 +753,36 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E9" s="3">
         <v>17600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2800</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,33 +792,36 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>200100</v>
+      </c>
+      <c r="E10" s="3">
         <v>97800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>68400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>40500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>22500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5200</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,31 +851,32 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E12" s="3">
         <v>26100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>7100</v>
       </c>
       <c r="I12" s="3">
         <v>7100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="J12" s="3">
+        <v>7100</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,9 +926,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,9 +965,12 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,32 +1021,33 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>273200</v>
+      </c>
+      <c r="E17" s="3">
         <v>171600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>116900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>71000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>44600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>33700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>27800</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1031,33 +1057,36 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-56200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-34900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-20400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-16000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-17300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19800</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,31 +1116,32 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1119,33 +1152,36 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-54100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-30600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-18100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-15500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-17100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-19700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1155,9 +1191,12 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1168,20 +1207,20 @@
         <v>2100</v>
       </c>
       <c r="F22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G22" s="3">
         <v>3300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1600</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,33 +1230,36 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-57100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-33200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-17500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21300</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1227,9 +1269,12 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1237,7 +1282,7 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1251,21 +1296,24 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,33 +1347,36 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-57200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-33200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-17500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21300</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1335,33 +1386,36 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-57200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-33200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-17500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-21300</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,32 +1581,35 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1551,33 +1620,36 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-57200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-33200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-17500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-21300</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,33 +1698,36 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-57200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-33200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-17500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-21300</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1659,38 +1737,41 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,29 +1818,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>214500</v>
+      </c>
+      <c r="E41" s="3">
         <v>190500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>97300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1768,29 +1854,32 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>43800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>126600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>90900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>7200</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1804,30 +1893,33 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E43" s="3">
         <v>25100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1840,30 +1932,33 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E44" s="3">
         <v>8500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3400</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1876,30 +1971,33 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1912,30 +2010,33 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>268500</v>
+      </c>
+      <c r="E46" s="3">
         <v>269900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>170600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>199300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>24100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12200</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1948,21 +2049,24 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>6300</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1978,36 +2082,39 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E48" s="3">
         <v>11100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,9 +2127,12 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2138,11 +2257,11 @@
         <v>200</v>
       </c>
       <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2158,15 +2277,18 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,30 +2322,33 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>295100</v>
+      </c>
+      <c r="E54" s="3">
         <v>281200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>181300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>200100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,29 +2398,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E57" s="3">
         <v>7200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2304,14 +2434,17 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>9200</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2319,15 +2452,15 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>3300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2340,30 +2473,33 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E59" s="3">
         <v>13500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2376,30 +2512,33 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E60" s="3">
         <v>20700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7300</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,30 +2551,33 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E61" s="3">
         <v>24700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2448,30 +2590,33 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E62" s="3">
         <v>6000</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,30 +2746,33 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E66" s="3">
         <v>51400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>41400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>36100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2732,14 +2899,14 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>119100</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>94100</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,30 +2958,33 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-279400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-237300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-180200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-146900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-125100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-107600</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,30 +3114,33 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E76" s="3">
         <v>229700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>139800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>164000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-117800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-100700</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,38 +3192,41 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,33 +3236,36 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-57200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-33200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-17500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-21300</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,31 +3295,32 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
         <v>800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,33 +3526,36 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-53000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-32800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-18700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-17900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-22300</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,31 +3585,32 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-300</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>-300</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,33 +3699,36 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E94" s="3">
         <v>86600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-43600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-83400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>23600</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,33 +3911,36 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E100" s="3">
         <v>134100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>190400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>25700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>12800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2500</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3705,9 +3950,12 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3720,8 +3968,8 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3738,36 +3986,39 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E102" s="3">
         <v>167700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-74400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>88300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3900</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/INSP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INSP_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,49 +665,49 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,36 +717,39 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>407900</v>
+      </c>
+      <c r="E8" s="3">
         <v>233400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>115400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>82100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>50600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>28600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -756,36 +759,39 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E9" s="3">
         <v>33300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>17600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,36 +801,39 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>341700</v>
+      </c>
+      <c r="E10" s="3">
         <v>200100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>97800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>68400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>40500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>22500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -834,9 +843,12 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,34 +864,35 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E12" s="3">
         <v>37400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>26100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>7100</v>
       </c>
       <c r="J12" s="3">
         <v>7100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
+      <c r="K12" s="3">
+        <v>7100</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
@@ -890,9 +903,12 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,9 +945,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,9 +987,12 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,9 +1029,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,35 +1047,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>455400</v>
+      </c>
+      <c r="E17" s="3">
         <v>273200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>171600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>116900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>71000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>44600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>33700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>27800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1060,36 +1086,39 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-39900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-56200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-34900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-20400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-16000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-17300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1099,9 +1128,12 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,34 +1149,35 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1155,36 +1188,39 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-38600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-54100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-30600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-18100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-15500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-17100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-19700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1194,14 +1230,17 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="E22" s="3">
         <v>2100</v>
@@ -1210,20 +1249,20 @@
         <v>2100</v>
       </c>
       <c r="G22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H22" s="3">
         <v>3300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1233,36 +1272,39 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-42000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-57100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-33200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-17500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-21300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1272,20 +1314,23 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1299,21 +1344,24 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,36 +1398,39 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-42000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-57200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-33200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-17500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-21300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1389,36 +1440,39 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-42000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-57200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-33200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-17500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-21300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1428,9 +1482,12 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,35 +1650,38 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1623,36 +1692,39 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-42000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-57200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-33200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-17500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-21300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1662,9 +1734,12 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,36 +1776,39 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-42000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-57200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-33200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-17500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-21300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,41 +1818,44 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1784,9 +1865,12 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,32 +1904,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>441600</v>
+      </c>
+      <c r="E41" s="3">
         <v>214500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>190500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>97300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1857,32 +1943,35 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>43800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>126600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>90900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>7200</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1896,33 +1985,36 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E43" s="3">
         <v>34200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>25100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,33 +2027,36 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E44" s="3">
         <v>17200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3400</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1974,33 +2069,36 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E45" s="3">
         <v>2700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2013,33 +2111,36 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>530000</v>
+      </c>
+      <c r="E46" s="3">
         <v>268500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>269900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>170600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>199300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>24100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2052,24 +2153,27 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>9900</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>6300</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,39 +2189,42 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E48" s="3">
         <v>16400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2130,9 +2237,12 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2169,9 +2279,12 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,24 +2363,27 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>10700</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
       </c>
       <c r="F52" s="3">
+        <v>200</v>
+      </c>
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,15 +2399,18 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,33 +2447,36 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>564900</v>
+      </c>
+      <c r="E54" s="3">
         <v>295100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>281200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>181300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>200100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,9 +2489,12 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,32 +2528,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E57" s="3">
         <v>11700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,33 +2567,36 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>9200</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>3300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,33 +2609,36 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E59" s="3">
         <v>20500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2515,33 +2651,36 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E60" s="3">
         <v>41300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7300</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2554,33 +2693,36 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>15800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2593,33 +2735,36 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E62" s="3">
         <v>8900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6000</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2632,9 +2777,12 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,33 +2903,36 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E66" s="3">
         <v>66000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>51400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>41400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>36100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2788,9 +2945,12 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2902,14 +3069,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>119100</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>94100</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,33 +3131,36 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-324300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-279400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-237300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-180200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-146900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-125100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-107600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3000,9 +3173,12 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,33 +3299,36 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>496000</v>
+      </c>
+      <c r="E76" s="3">
         <v>229000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>229700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>139800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>164000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-117800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-100700</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3156,9 +3341,12 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,41 +3383,44 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3239,36 +3430,39 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-42000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-57200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-33200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-17500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-21300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3278,9 +3472,12 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,34 +3493,35 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>100</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3334,9 +3532,12 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,36 +3742,39 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-53000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-32800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-18700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-17900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3568,9 +3784,12 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,34 +3805,35 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-300</v>
       </c>
       <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>-300</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3624,9 +3844,12 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,36 +3928,39 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E94" s="3">
         <v>29100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>86600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-43600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-83400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>23600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,9 +3970,12 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,8 +3991,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,36 +4156,39 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>235100</v>
+      </c>
+      <c r="E100" s="3">
         <v>14900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>134100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>190400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>25700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>12800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3953,14 +4198,17 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3971,8 +4219,8 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3989,39 +4237,42 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>227100</v>
+      </c>
+      <c r="E102" s="3">
         <v>23900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>167700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-74400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>88300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3900</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4031,7 +4282,10 @@
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
